--- a/biology/Botanique/Crataegus_coccinea/Crataegus_coccinea.xlsx
+++ b/biology/Botanique/Crataegus_coccinea/Crataegus_coccinea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crataegus coccinea est une espèce de plantes à fleurs de la famille des Rosaceae. Elle peut-être aussi appelée Aubépine écarlate[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crataegus coccinea est une espèce de plantes à fleurs de la famille des Rosaceae. Elle peut-être aussi appelée Aubépine écarlate.
 </t>
         </is>
       </c>
@@ -513,15 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Crataegus mollis peut prend la forme d’un buisson, d'un arbuste ou d’un arbre qui peut atteindre 10 m de hauteur[2]. Son tronc, souvent tortueux porte une cime généralement basse.
-Les feuilles, caduques, sont simples et ont une disposition alterne. De forme ovale, elles sont portées par un pétiole présentant à sa base deux stipules dentées. Les feuilles mesurent de 6 à 9 cm de long[2]. Leur bordure est doublement dentée.
-Les bourgeons, d'un brun rougeâtre luisant, sont recouverts de 5 à 10 écailles. Les bourgeons axillaires sont légèrement plus petits que les bourgeons terminaux, et contrairement à ces derniers, ils se présentent assez souvent par groupe de 2 ou 3, avec un d'entre eux qui pourra donner une épine[2].
-Les rameaux sont de deux sortes : soit de longues pousses portant feuilles et épines, ces dernières étant lisses et luisantes, dures et acérées, longues de 6 cm environ[2], soit des pousses courtes pouvant porter feuilles et fleurs (puis fruits). Ces rameaux ont une couleur variable, grise ou brun-orangé.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crataegus mollis peut prend la forme d’un buisson, d'un arbuste ou d’un arbre qui peut atteindre 10 m de hauteur. Son tronc, souvent tortueux porte une cime généralement basse.
+Les feuilles, caduques, sont simples et ont une disposition alterne. De forme ovale, elles sont portées par un pétiole présentant à sa base deux stipules dentées. Les feuilles mesurent de 6 à 9 cm de long. Leur bordure est doublement dentée.
+Les bourgeons, d'un brun rougeâtre luisant, sont recouverts de 5 à 10 écailles. Les bourgeons axillaires sont légèrement plus petits que les bourgeons terminaux, et contrairement à ces derniers, ils se présentent assez souvent par groupe de 2 ou 3, avec un d'entre eux qui pourra donner une épine.
+Les rameaux sont de deux sortes : soit de longues pousses portant feuilles et épines, ces dernières étant lisses et luisantes, dures et acérées, longues de 6 cm environ, soit des pousses courtes pouvant porter feuilles et fleurs (puis fruits). Ces rameaux ont une couleur variable, grise ou brun-orangé.
 Le bois est dur et peut être utilisé pour la sculpture ou le travail au tour à bois.
-Appareil reproducteur
-Les fleurs apparaissent à la fin du printemps, en même temps que les feuilles. Les inflorescences sont des grappes aplaties qui se forment à l’extrémité des pousses courtes. Les fleurs sont blanches ou rosées et dégagent une odeur douce mais assez désagréable. Chaque fleur présente 5 sépales verdâtres, 5 pétales blancs ou parfois rosés, de 5 à 25 étamines et de 1 à 5 pistils[2].
-Les fruits sont des baies comestibles, globuleux et peu charnues. De couleur rouge, ils mesurent de 10 à 14 mm de largeur et contiennent de 1 à 5 graines[2]. Ils persistent généralement sur l'arbre durant l'hiver.
 </t>
         </is>
       </c>
@@ -547,12 +561,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette aubépine préfère les sols riches en calcium et les sites bien exposés à la lumière. On la trouve par exemple dans des friches, sur le bord de cours d’eau ou dans des clairières.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs apparaissent à la fin du printemps, en même temps que les feuilles. Les inflorescences sont des grappes aplaties qui se forment à l’extrémité des pousses courtes. Les fleurs sont blanches ou rosées et dégagent une odeur douce mais assez désagréable. Chaque fleur présente 5 sépales verdâtres, 5 pétales blancs ou parfois rosés, de 5 à 25 étamines et de 1 à 5 pistils.
+Les fruits sont des baies comestibles, globuleux et peu charnues. De couleur rouge, ils mesurent de 10 à 14 mm de largeur et contiennent de 1 à 5 graines. Ils persistent généralement sur l'arbre durant l'hiver.
 </t>
         </is>
       </c>
@@ -578,12 +599,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette aubépine préfère les sols riches en calcium et les sites bien exposés à la lumière. On la trouve par exemple dans des friches, sur le bord de cours d’eau ou dans des clairières.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crataegus_coccinea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crataegus_coccinea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie et systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été scientifiquement décrite pour la première fois en 1753 par le naturaliste suédois Carl von Linné dans son ouvrage Species Plantarum[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été scientifiquement décrite pour la première fois en 1753 par le naturaliste suédois Carl von Linné dans son ouvrage Species Plantarum.
 </t>
         </is>
       </c>
